--- a/Radiation value data.xlsx
+++ b/Radiation value data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\编程VC++\数据结构与算法\PythonApplication3\PythonApplication3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\编程VC++\数据结构与算法\PythonApplication5\PythonApplication5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBF6BD0-D4D0-48F5-B3DB-36DA03AFAF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B269B383-E91B-477C-9FE6-05CA684F2668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,14 +55,14 @@
     <t>日期</t>
   </si>
   <si>
-    <t>时间</t>
-  </si>
-  <si>
-    <t>直接辐照W/m^2</t>
+    <t>Direct irradiation</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>散射辐照W/m^2</t>
+    <t>Scattering irradiation</t>
+  </si>
+  <si>
+    <t>Time</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -992,11 +992,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3632"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1051,13 +1055,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
